--- a/es-27_06.xlsx
+++ b/es-27_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bydod\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF816C7-312E-450D-AFD6-7BE13B918A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6FEADC-7128-417B-86AB-084B62B04FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="132" windowWidth="17340" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="132" windowWidth="17340" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>150000 X 0,50</t>
   </si>
   <si>
-    <t xml:space="preserve">210000 X 0,02 </t>
-  </si>
-  <si>
     <t xml:space="preserve">350000 X 0,60 </t>
   </si>
   <si>
@@ -113,24 +110,15 @@
     <t xml:space="preserve">100000 X 0,95 </t>
   </si>
   <si>
-    <t xml:space="preserve">60000 X 0,05 </t>
-  </si>
-  <si>
     <t xml:space="preserve">150000 X 0,40 </t>
   </si>
   <si>
-    <t>75000 X 0,02</t>
-  </si>
-  <si>
     <t>Inondazione edificio primario</t>
   </si>
   <si>
     <t>350000 X 0,55</t>
   </si>
   <si>
-    <t>192500 X 0,05</t>
-  </si>
-  <si>
     <t>Terremoto edificio primario</t>
   </si>
   <si>
@@ -138,6 +126,18 @@
   </si>
   <si>
     <t>280000 X 0,03</t>
+  </si>
+  <si>
+    <t>60000 X 0,02</t>
+  </si>
+  <si>
+    <t>75000 X 0,05</t>
+  </si>
+  <si>
+    <t>210000 X 0,05</t>
+  </si>
+  <si>
+    <t>192500 X 0,02</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -530,19 +530,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -826,7 +825,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,14 +848,14 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>26</v>
+      <c r="H2" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="2">
         <f>B4*0.4</f>
@@ -870,16 +869,16 @@
       <c r="B3" s="13">
         <v>350000</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="31">
+        <v>30</v>
+      </c>
+      <c r="I3" s="28">
         <f>60000*C10</f>
-        <v>3000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -897,14 +896,14 @@
       <c r="B5" s="15">
         <v>100000</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>24</v>
+      <c r="H5" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="2">
         <f>B5*0.95</f>
@@ -912,14 +911,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="28"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="30">
+        <v>22</v>
+      </c>
+      <c r="I6" s="28">
         <f>I5*C8</f>
         <v>2850</v>
       </c>
@@ -942,14 +941,14 @@
       <c r="C8">
         <v>0.03</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>22</v>
+      <c r="H8" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="2">
         <f>B3*0.6</f>
@@ -964,18 +963,18 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="30"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="30">
+        <v>32</v>
+      </c>
+      <c r="I9" s="28">
         <f>I8*C9</f>
-        <v>4200</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -986,17 +985,17 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="2">
@@ -1017,16 +1016,16 @@
       <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="30">
+        <v>31</v>
+      </c>
+      <c r="I12" s="28">
         <f>I11*C9</f>
-        <v>1500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,14 +1055,14 @@
       <c r="D14" s="25">
         <v>0.4</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>28</v>
+      <c r="F14" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>29</v>
+      <c r="H14" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="2">
         <f>B3*0.55</f>
@@ -1083,28 +1082,28 @@
       <c r="D15" s="26">
         <v>0.35</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="30">
+        <v>33</v>
+      </c>
+      <c r="I15" s="28">
         <f>I14*C10</f>
-        <v>9625.0000000000018</v>
+        <v>3850.0000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="27" t="s">
-        <v>31</v>
+      <c r="F17" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>32</v>
+      <c r="H17" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="2">
         <f>B3*0.8</f>
@@ -1112,26 +1111,26 @@
       </c>
     </row>
     <row r="18" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="28"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="30">
+        <v>29</v>
+      </c>
+      <c r="I18" s="28">
         <f>I17*C8</f>
         <v>8400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
